--- a/CHIN/CHINttl.xlsx
+++ b/CHIN/CHINttl.xlsx
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>

--- a/CHIN/CHINttl.xlsx
+++ b/CHIN/CHINttl.xlsx
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -547,13 +547,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -566,13 +566,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>

--- a/CHIN/CHINttl.xlsx
+++ b/CHIN/CHINttl.xlsx
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
